--- a/docs/formula.xlsx
+++ b/docs/formula.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sideline\project\booking_system\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904633A0-34E9-4B97-BABC-12D120078535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C456D17-554A-47A1-A13B-3A081F2B6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{120EACDC-1700-4DE4-9455-C3C784D54886}"/>
+    <workbookView xWindow="2655" yWindow="1740" windowWidth="18165" windowHeight="12765" activeTab="1" xr2:uid="{120EACDC-1700-4DE4-9455-C3C784D54886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>title</t>
   </si>
@@ -212,6 +213,15 @@
   </si>
   <si>
     <t>others</t>
+  </si>
+  <si>
+    <t>Create Transaction</t>
+  </si>
+  <si>
+    <t>customer a</t>
+  </si>
+  <si>
+    <t>customer b</t>
   </si>
 </sst>
 </file>
@@ -582,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97A79B7-B563-42F7-A448-7AE1AF72091B}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +602,7 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1207,4 +1218,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA10A6-91B4-47E9-8444-183D3B12CFC4}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>123123</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>123123</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>123123</v>
+      </c>
+      <c r="G7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>123123</v>
+      </c>
+      <c r="G8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>123123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>